--- a/Comedy_Database.xlsx
+++ b/Comedy_Database.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bill\Documents\GitHub\Movie_Classification\"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="178">
   <si>
     <t>Filename</t>
   </si>
@@ -80,9 +80,6 @@
     <t>American Made</t>
   </si>
   <si>
-    <t>Kingsman_2017.jpg</t>
-  </si>
-  <si>
     <t>biography</t>
   </si>
   <si>
@@ -104,7 +101,463 @@
     <t>Sarah Wright</t>
   </si>
   <si>
-    <t>American_made_2017.jpg</t>
+    <t>Baby Driver</t>
+  </si>
+  <si>
+    <t>crime</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>Ansel Elgort</t>
+  </si>
+  <si>
+    <t>Jon Bernthal</t>
+  </si>
+  <si>
+    <t>Jon Hamm</t>
+  </si>
+  <si>
+    <t>Wonder Woman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">action </t>
+  </si>
+  <si>
+    <t>fantasy</t>
+  </si>
+  <si>
+    <t>Gal Gadot</t>
+  </si>
+  <si>
+    <t>Chris Pine</t>
+  </si>
+  <si>
+    <t>Robin Wright</t>
+  </si>
+  <si>
+    <t>Kingsman: The Secret Service</t>
+  </si>
+  <si>
+    <t> Colin Firth</t>
+  </si>
+  <si>
+    <t>kingsman_2014</t>
+  </si>
+  <si>
+    <t>Taron Egerton</t>
+  </si>
+  <si>
+    <t>Samuel L. Jackson</t>
+  </si>
+  <si>
+    <t>American Assassin</t>
+  </si>
+  <si>
+    <t>thriller</t>
+  </si>
+  <si>
+    <t>Dylan O'Brien</t>
+  </si>
+  <si>
+    <t>Michael Keaton</t>
+  </si>
+  <si>
+    <t>Sanaa Lathan</t>
+  </si>
+  <si>
+    <t>american_assasin_2017</t>
+  </si>
+  <si>
+    <t>Kingsman_2017</t>
+  </si>
+  <si>
+    <t>American_made_2017</t>
+  </si>
+  <si>
+    <t>Baby_driver_2017</t>
+  </si>
+  <si>
+    <t>wonder_woman_2017</t>
+  </si>
+  <si>
+    <t>Transformers: The Last Knight </t>
+  </si>
+  <si>
+    <t>sci-fi</t>
+  </si>
+  <si>
+    <t>transformers_2017</t>
+  </si>
+  <si>
+    <t>Spider-Man: Homecoming</t>
+  </si>
+  <si>
+    <t>spiderman_2017</t>
+  </si>
+  <si>
+    <t>Pirates of the Caribbean: Dead Men Tell No Tales</t>
+  </si>
+  <si>
+    <t>Johnny Depp</t>
+  </si>
+  <si>
+    <t>Geoffrey Rush</t>
+  </si>
+  <si>
+    <t>Javier Bardem</t>
+  </si>
+  <si>
+    <t>pirates_2017</t>
+  </si>
+  <si>
+    <t>The LEGO Ninjago Movie</t>
+  </si>
+  <si>
+    <t>animation</t>
+  </si>
+  <si>
+    <t>lego_2017</t>
+  </si>
+  <si>
+    <t>Dunkirk</t>
+  </si>
+  <si>
+    <t>drama</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>Fionn Whitehead</t>
+  </si>
+  <si>
+    <t>Barry Keoghan</t>
+  </si>
+  <si>
+    <t>Mark Rylance</t>
+  </si>
+  <si>
+    <t>dunkirk_2017</t>
+  </si>
+  <si>
+    <t>Guardians of the Galaxy Vol. 2</t>
+  </si>
+  <si>
+    <t>Chris Pratt</t>
+  </si>
+  <si>
+    <t>Zoe Saldana</t>
+  </si>
+  <si>
+    <t>Dave Bautista</t>
+  </si>
+  <si>
+    <t>guardians_2017</t>
+  </si>
+  <si>
+    <t>The Hitman's Bodyguard</t>
+  </si>
+  <si>
+    <t>Ryan Reynolds</t>
+  </si>
+  <si>
+    <t>Gary Oldman</t>
+  </si>
+  <si>
+    <t>Baywatch</t>
+  </si>
+  <si>
+    <t>hitman_2017</t>
+  </si>
+  <si>
+    <t>Dwayne Johnson</t>
+  </si>
+  <si>
+    <t>Zac Efron</t>
+  </si>
+  <si>
+    <t>Alexandra Daddario</t>
+  </si>
+  <si>
+    <t>baywatch_2017</t>
+  </si>
+  <si>
+    <t>Assassin's Creed</t>
+  </si>
+  <si>
+    <t>Michael Fassbender</t>
+  </si>
+  <si>
+    <t>Marion Cotillard</t>
+  </si>
+  <si>
+    <t>Jeremy Irons</t>
+  </si>
+  <si>
+    <t>assasins_creed_2016</t>
+  </si>
+  <si>
+    <t>King Arthur: Legend of the Sword</t>
+  </si>
+  <si>
+    <t>Charlie Hunnam</t>
+  </si>
+  <si>
+    <t>Astrid Bergès-Frisbey</t>
+  </si>
+  <si>
+    <t>Jude Law</t>
+  </si>
+  <si>
+    <t>king_arthur_2017</t>
+  </si>
+  <si>
+    <t>The Mummy</t>
+  </si>
+  <si>
+    <t>Sofia Boutella</t>
+  </si>
+  <si>
+    <t>Annabelle Wallis</t>
+  </si>
+  <si>
+    <t>the_mummy_2017</t>
+  </si>
+  <si>
+    <t>Despicable Me 3</t>
+  </si>
+  <si>
+    <t>minions3_2017</t>
+  </si>
+  <si>
+    <t>What Happened to Monday</t>
+  </si>
+  <si>
+    <t>Suicide Squad</t>
+  </si>
+  <si>
+    <t>suicide_2017</t>
+  </si>
+  <si>
+    <t>monday_2017</t>
+  </si>
+  <si>
+    <t>War for the Planet of the Apes</t>
+  </si>
+  <si>
+    <t>harambe_2k17</t>
+  </si>
+  <si>
+    <t>The Mountain Between Us</t>
+  </si>
+  <si>
+    <t>Idris Elba</t>
+  </si>
+  <si>
+    <t>Kate Winslet</t>
+  </si>
+  <si>
+    <t>Beau Bridges</t>
+  </si>
+  <si>
+    <t>mountain_2017</t>
+  </si>
+  <si>
+    <t>Spyder</t>
+  </si>
+  <si>
+    <t>Mahesh Babu</t>
+  </si>
+  <si>
+    <t>Surya S.J.</t>
+  </si>
+  <si>
+    <t>Bharath Srinivasan</t>
+  </si>
+  <si>
+    <t>spyder_2017</t>
+  </si>
+  <si>
+    <t>Atomic Blonde</t>
+  </si>
+  <si>
+    <t>mystery</t>
+  </si>
+  <si>
+    <t>Charlize Theron</t>
+  </si>
+  <si>
+    <t>James McAvoy</t>
+  </si>
+  <si>
+    <t>John Goodman</t>
+  </si>
+  <si>
+    <t>atomic_blonde_2017</t>
+  </si>
+  <si>
+    <t>The Foreigner</t>
+  </si>
+  <si>
+    <t>Katie Leung</t>
+  </si>
+  <si>
+    <t>Jackie Chan</t>
+  </si>
+  <si>
+    <t>Rufus Jones</t>
+  </si>
+  <si>
+    <t>foreigner_2017</t>
+  </si>
+  <si>
+    <t>The Magnificent Seven</t>
+  </si>
+  <si>
+    <t>western</t>
+  </si>
+  <si>
+    <t>Denzel Washington</t>
+  </si>
+  <si>
+    <t>Ethan Hawke</t>
+  </si>
+  <si>
+    <t>magnificant_seven_2016</t>
+  </si>
+  <si>
+    <t>The Dark Tower</t>
+  </si>
+  <si>
+    <t>dark_tower_2017</t>
+  </si>
+  <si>
+    <t>The Accountant</t>
+  </si>
+  <si>
+    <t>Ben Affleck</t>
+  </si>
+  <si>
+    <t>Anna Kendrick</t>
+  </si>
+  <si>
+    <t>J.K. Simmons</t>
+  </si>
+  <si>
+    <t>the_accountant_2016</t>
+  </si>
+  <si>
+    <t>Logan</t>
+  </si>
+  <si>
+    <t>Hugh Jackman</t>
+  </si>
+  <si>
+    <t>Patrick Stewart</t>
+  </si>
+  <si>
+    <t>Dafne Keen</t>
+  </si>
+  <si>
+    <t>logan_2017</t>
+  </si>
+  <si>
+    <t>dark_knight_2008</t>
+  </si>
+  <si>
+    <t>The Dark Knight</t>
+  </si>
+  <si>
+    <t>Rogue One</t>
+  </si>
+  <si>
+    <t>Felicity Jones</t>
+  </si>
+  <si>
+    <t>Diego Luna</t>
+  </si>
+  <si>
+    <t>Alan Tudyk</t>
+  </si>
+  <si>
+    <t>rouge_one_2016</t>
+  </si>
+  <si>
+    <t>Deadpool</t>
+  </si>
+  <si>
+    <t>deadpool_2016</t>
+  </si>
+  <si>
+    <t>Guardians of the Galaxy</t>
+  </si>
+  <si>
+    <t>Vin Diesel</t>
+  </si>
+  <si>
+    <t>Bradley Cooper</t>
+  </si>
+  <si>
+    <t>guardians_2014</t>
+  </si>
+  <si>
+    <t>Valerian and the City of a Thousand Planets</t>
+  </si>
+  <si>
+    <t>Dane DeHaan</t>
+  </si>
+  <si>
+    <t>Cara Delevingne</t>
+  </si>
+  <si>
+    <t>Clive Owen</t>
+  </si>
+  <si>
+    <t>valderian_2017</t>
+  </si>
+  <si>
+    <t>John Wick: Chapter 2</t>
+  </si>
+  <si>
+    <t>Keanu Reeves</t>
+  </si>
+  <si>
+    <t>Riccardo Scamarcio</t>
+  </si>
+  <si>
+    <t>Ian McShane</t>
+  </si>
+  <si>
+    <t>john_wick2_2017</t>
+  </si>
+  <si>
+    <t>The Fate of the Furious</t>
+  </si>
+  <si>
+    <t>fate_2017</t>
+  </si>
+  <si>
+    <t>Ghost in the Shell</t>
+  </si>
+  <si>
+    <t>Scarlett Johansson</t>
+  </si>
+  <si>
+    <t>Pilou Asbæk</t>
+  </si>
+  <si>
+    <t>Takeshi Kitano</t>
+  </si>
+  <si>
+    <t>ghost_2017</t>
+  </si>
+  <si>
+    <t>Kong: Skull Island</t>
+  </si>
+  <si>
+    <t>harambe_bigger_2017</t>
   </si>
 </sst>
 </file>
@@ -456,21 +909,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="5" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
     <col min="7" max="7" width="5.42578125" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="3.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -527,7 +984,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -536,13 +993,13 @@
         <v>2017</v>
       </c>
       <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
         <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
       </c>
       <c r="G4">
         <v>7.3</v>
@@ -553,7 +1010,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -562,13 +1019,13 @@
         <v>2017</v>
       </c>
       <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
         <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
       </c>
       <c r="G5">
         <v>7.3</v>
@@ -577,13 +1034,1445 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s">
         <v>23</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>24</v>
       </c>
-      <c r="K5" t="s">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
         <v>25</v>
+      </c>
+      <c r="C6">
+        <v>2017</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6">
+        <v>7.9</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7">
+        <v>2017</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7">
+        <v>7.7</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8">
+        <v>2017</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>7.7</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9">
+        <v>2017</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9">
+        <v>6.6</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10">
+        <v>2017</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10">
+        <v>5.2</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11">
+        <v>2017</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11">
+        <v>7.8</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12">
+        <v>6.8</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" t="s">
+        <v>59</v>
+      </c>
+      <c r="K12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13">
+        <v>2017</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13">
+        <v>6.2</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14">
+        <v>2017</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14">
+        <v>8.4</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15">
+        <v>2017</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15">
+        <v>7.8</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" t="s">
+        <v>74</v>
+      </c>
+      <c r="K15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16">
+        <v>2017</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17">
+        <v>2017</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17">
+        <v>5.6</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>82</v>
+      </c>
+      <c r="J17" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18">
+        <v>2016</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18">
+        <v>5.9</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>87</v>
+      </c>
+      <c r="J18" t="s">
+        <v>88</v>
+      </c>
+      <c r="K18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19">
+        <v>6.9</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>92</v>
+      </c>
+      <c r="J19" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20">
+        <v>2017</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20">
+        <v>5.5</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" t="s">
+        <v>97</v>
+      </c>
+      <c r="K20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>2017</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21">
+        <v>6.3</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22">
+        <v>2017</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22">
+        <v>6.9</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23">
+        <v>2016</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23">
+        <v>6.2</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24">
+        <v>2017</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24">
+        <v>7.8</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25">
+        <v>2017</v>
+      </c>
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25">
+        <v>5.9</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>109</v>
+      </c>
+      <c r="J25" t="s">
+        <v>110</v>
+      </c>
+      <c r="K25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26">
+        <v>2017</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26">
+        <v>8.1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>114</v>
+      </c>
+      <c r="J26" t="s">
+        <v>115</v>
+      </c>
+      <c r="K26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27">
+        <v>2017</v>
+      </c>
+      <c r="D27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27">
+        <v>7.1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>120</v>
+      </c>
+      <c r="J27" t="s">
+        <v>121</v>
+      </c>
+      <c r="K27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28">
+        <v>2017</v>
+      </c>
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28">
+        <v>7.6</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>125</v>
+      </c>
+      <c r="J28" t="s">
+        <v>126</v>
+      </c>
+      <c r="K28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29">
+        <v>2016</v>
+      </c>
+      <c r="D29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29">
+        <v>6.9</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>131</v>
+      </c>
+      <c r="J29" t="s">
+        <v>73</v>
+      </c>
+      <c r="K29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30">
+        <v>2017</v>
+      </c>
+      <c r="D30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30">
+        <v>6</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31">
+        <v>2016</v>
+      </c>
+      <c r="D31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31">
+        <v>7.4</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>137</v>
+      </c>
+      <c r="J31" t="s">
+        <v>138</v>
+      </c>
+      <c r="K31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32">
+        <v>2017</v>
+      </c>
+      <c r="D32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>142</v>
+      </c>
+      <c r="J32" t="s">
+        <v>143</v>
+      </c>
+      <c r="K32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33">
+        <v>2008</v>
+      </c>
+      <c r="D33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" t="s">
+        <v>66</v>
+      </c>
+      <c r="G33">
+        <v>9</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34">
+        <v>2016</v>
+      </c>
+      <c r="D34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34">
+        <v>9</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>149</v>
+      </c>
+      <c r="J34" t="s">
+        <v>150</v>
+      </c>
+      <c r="K34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35">
+        <v>2016</v>
+      </c>
+      <c r="D35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35">
+        <v>8</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36">
+        <v>2014</v>
+      </c>
+      <c r="D36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" t="s">
+        <v>53</v>
+      </c>
+      <c r="G36">
+        <v>8.1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>73</v>
+      </c>
+      <c r="J36" t="s">
+        <v>156</v>
+      </c>
+      <c r="K36" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>163</v>
+      </c>
+      <c r="B37" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37">
+        <v>2017</v>
+      </c>
+      <c r="D37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37">
+        <v>6.7</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>160</v>
+      </c>
+      <c r="J37" t="s">
+        <v>161</v>
+      </c>
+      <c r="K37" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>168</v>
+      </c>
+      <c r="B38" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38">
+        <v>2017</v>
+      </c>
+      <c r="D38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" t="s">
+        <v>43</v>
+      </c>
+      <c r="G38">
+        <v>7.6</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>165</v>
+      </c>
+      <c r="J38" t="s">
+        <v>166</v>
+      </c>
+      <c r="K38" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>170</v>
+      </c>
+      <c r="B39" t="s">
+        <v>169</v>
+      </c>
+      <c r="C39">
+        <v>2017</v>
+      </c>
+      <c r="D39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39">
+        <v>6.8</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>175</v>
+      </c>
+      <c r="B40" t="s">
+        <v>171</v>
+      </c>
+      <c r="C40">
+        <v>2017</v>
+      </c>
+      <c r="D40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" t="s">
+        <v>66</v>
+      </c>
+      <c r="G40">
+        <v>6.5</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>172</v>
+      </c>
+      <c r="J40" t="s">
+        <v>173</v>
+      </c>
+      <c r="K40" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>177</v>
+      </c>
+      <c r="B41" t="s">
+        <v>176</v>
+      </c>
+      <c r="C41">
+        <v>2017</v>
+      </c>
+      <c r="D41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41">
+        <v>6.7</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Comedy_Database.xlsx
+++ b/Comedy_Database.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="267">
   <si>
     <t>Filename</t>
   </si>
@@ -558,6 +558,273 @@
   </si>
   <si>
     <t>harambe_bigger_2017</t>
+  </si>
+  <si>
+    <t>Unlocked</t>
+  </si>
+  <si>
+    <t>Noomi Rapace</t>
+  </si>
+  <si>
+    <t>Orlando Bloom</t>
+  </si>
+  <si>
+    <t>Toni Collette</t>
+  </si>
+  <si>
+    <t>unlocked_2017</t>
+  </si>
+  <si>
+    <t>Inception</t>
+  </si>
+  <si>
+    <t>inception_2010</t>
+  </si>
+  <si>
+    <t>Star Wars: The Force Awakens</t>
+  </si>
+  <si>
+    <t>Daisy Ridley</t>
+  </si>
+  <si>
+    <t>John Boyega</t>
+  </si>
+  <si>
+    <t>Oscar Isaac</t>
+  </si>
+  <si>
+    <t>star_wars_2015</t>
+  </si>
+  <si>
+    <t>Mad Max: Fury Road</t>
+  </si>
+  <si>
+    <t>mad_max_2015</t>
+  </si>
+  <si>
+    <t>Batman v Superman: Dawn of Justice</t>
+  </si>
+  <si>
+    <t>Henry Cavill</t>
+  </si>
+  <si>
+    <t>Amy Adams</t>
+  </si>
+  <si>
+    <t>batman_2016</t>
+  </si>
+  <si>
+    <t>Watchmen</t>
+  </si>
+  <si>
+    <t>Jackie Earle Haley</t>
+  </si>
+  <si>
+    <t>Patrick Wilson</t>
+  </si>
+  <si>
+    <t>Carla Gugino</t>
+  </si>
+  <si>
+    <t>watchmen_2009</t>
+  </si>
+  <si>
+    <t>Avatar</t>
+  </si>
+  <si>
+    <t>avatar_2009</t>
+  </si>
+  <si>
+    <t>Jungle</t>
+  </si>
+  <si>
+    <t>Daniel Radcliffe</t>
+  </si>
+  <si>
+    <t>Thomas Kretschmann</t>
+  </si>
+  <si>
+    <t>Lily Sullivan</t>
+  </si>
+  <si>
+    <t>jungle_2017</t>
+  </si>
+  <si>
+    <t>Star Trek: Beyond</t>
+  </si>
+  <si>
+    <t>Zachary Quinto</t>
+  </si>
+  <si>
+    <t>Karl Urban</t>
+  </si>
+  <si>
+    <t>star_trek_2016</t>
+  </si>
+  <si>
+    <t>San Andreas</t>
+  </si>
+  <si>
+    <t>san_andreas_2015</t>
+  </si>
+  <si>
+    <t>Doctor Strange</t>
+  </si>
+  <si>
+    <t>Benedict Cumberbatch</t>
+  </si>
+  <si>
+    <t>Chiwetel Ejiofor</t>
+  </si>
+  <si>
+    <t>Rachel McAdams</t>
+  </si>
+  <si>
+    <t>doctor_strange_2016</t>
+  </si>
+  <si>
+    <t>Cowboys &amp; Aliens</t>
+  </si>
+  <si>
+    <t>Daniel Craig</t>
+  </si>
+  <si>
+    <t>Harrison Ford</t>
+  </si>
+  <si>
+    <t>cowboys_2011</t>
+  </si>
+  <si>
+    <t>Olivia Wilde</t>
+  </si>
+  <si>
+    <t>Allegiant</t>
+  </si>
+  <si>
+    <t>Shailene Woodley</t>
+  </si>
+  <si>
+    <t>Theo James</t>
+  </si>
+  <si>
+    <t>Jeff Daniels</t>
+  </si>
+  <si>
+    <t>allegiant_2016</t>
+  </si>
+  <si>
+    <t>Power Rangers</t>
+  </si>
+  <si>
+    <t>power_rangers_2017</t>
+  </si>
+  <si>
+    <t>The Avengers</t>
+  </si>
+  <si>
+    <t>Robert Downey Jr.</t>
+  </si>
+  <si>
+    <t>Chris Evans</t>
+  </si>
+  <si>
+    <t>avengers_2012</t>
+  </si>
+  <si>
+    <t>Jumanji</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>jumanji_1995</t>
+  </si>
+  <si>
+    <t>Transformers</t>
+  </si>
+  <si>
+    <t>transformers_2007</t>
+  </si>
+  <si>
+    <t>Maze Runner: The Scorch Trials</t>
+  </si>
+  <si>
+    <t>maze_runner_2015</t>
+  </si>
+  <si>
+    <t>Spectre</t>
+  </si>
+  <si>
+    <t>Christoph Waltz</t>
+  </si>
+  <si>
+    <t>Léa Seydoux</t>
+  </si>
+  <si>
+    <t>spectre_2015</t>
+  </si>
+  <si>
+    <t>Sicario</t>
+  </si>
+  <si>
+    <t>Emily Blunt</t>
+  </si>
+  <si>
+    <t>Josh Brolin</t>
+  </si>
+  <si>
+    <t>Benicio Del Toro</t>
+  </si>
+  <si>
+    <t>sicario_2015</t>
+  </si>
+  <si>
+    <t>John Wick</t>
+  </si>
+  <si>
+    <t>Michael Nyqvist</t>
+  </si>
+  <si>
+    <t>Alfie Allen</t>
+  </si>
+  <si>
+    <t>john_wick_2014</t>
+  </si>
+  <si>
+    <t>The Dark Knight Rises</t>
+  </si>
+  <si>
+    <t>the_dark_knight_2012</t>
+  </si>
+  <si>
+    <t>Captain America: Civil War</t>
+  </si>
+  <si>
+    <t>captain_america_2016</t>
+  </si>
+  <si>
+    <t>X-Men: Apocalypse</t>
+  </si>
+  <si>
+    <t>Jennifer Lawrence </t>
+  </si>
+  <si>
+    <t>xmen_2016</t>
+  </si>
+  <si>
+    <t>Tombstone</t>
+  </si>
+  <si>
+    <t>Kurt Russell</t>
+  </si>
+  <si>
+    <t>Val Kilmer</t>
+  </si>
+  <si>
+    <t>Sam Elliott</t>
+  </si>
+  <si>
+    <t>tombstone_1993</t>
   </si>
 </sst>
 </file>
@@ -593,8 +860,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -912,8 +1180,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2181,196 +2449,871 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>182</v>
+      </c>
+      <c r="B42" t="s">
+        <v>178</v>
+      </c>
+      <c r="C42">
+        <v>2017</v>
+      </c>
       <c r="D42" t="s">
         <v>32</v>
       </c>
+      <c r="E42" t="s">
+        <v>66</v>
+      </c>
+      <c r="F42" t="s">
+        <v>119</v>
+      </c>
+      <c r="G42">
+        <v>6.1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42" t="s">
+        <v>179</v>
+      </c>
+      <c r="J42" t="s">
+        <v>180</v>
+      </c>
+      <c r="K42" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>184</v>
+      </c>
+      <c r="B43" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43">
+        <v>2010</v>
+      </c>
       <c r="D43" t="s">
         <v>32</v>
       </c>
+      <c r="E43" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" t="s">
+        <v>53</v>
+      </c>
+      <c r="G43">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>189</v>
+      </c>
+      <c r="B44" t="s">
+        <v>185</v>
+      </c>
+      <c r="C44">
+        <v>2015</v>
+      </c>
       <c r="D44" t="s">
         <v>32</v>
       </c>
+      <c r="E44" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44">
+        <v>8.1</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44" t="s">
+        <v>186</v>
+      </c>
+      <c r="J44" t="s">
+        <v>187</v>
+      </c>
+      <c r="K44" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>191</v>
+      </c>
+      <c r="B45" t="s">
+        <v>190</v>
+      </c>
+      <c r="C45">
+        <v>2015</v>
+      </c>
       <c r="D45" t="s">
         <v>32</v>
       </c>
+      <c r="E45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G45">
+        <v>8.1</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>195</v>
+      </c>
+      <c r="B46" t="s">
+        <v>192</v>
+      </c>
+      <c r="C46">
+        <v>2016</v>
+      </c>
       <c r="D46" t="s">
         <v>32</v>
       </c>
+      <c r="E46" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" t="s">
+        <v>53</v>
+      </c>
+      <c r="G46">
+        <v>6.6</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46" t="s">
+        <v>137</v>
+      </c>
+      <c r="J46" t="s">
+        <v>193</v>
+      </c>
+      <c r="K46" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>200</v>
+      </c>
+      <c r="B47" t="s">
+        <v>196</v>
+      </c>
+      <c r="C47">
+        <v>2009</v>
+      </c>
       <c r="D47" t="s">
         <v>32</v>
       </c>
+      <c r="E47" t="s">
+        <v>66</v>
+      </c>
+      <c r="F47" t="s">
+        <v>119</v>
+      </c>
+      <c r="G47">
+        <v>7.6</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47" t="s">
+        <v>197</v>
+      </c>
+      <c r="J47" t="s">
+        <v>198</v>
+      </c>
+      <c r="K47" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>202</v>
+      </c>
+      <c r="B48" t="s">
+        <v>201</v>
+      </c>
+      <c r="C48">
+        <v>2009</v>
+      </c>
       <c r="D48" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" t="s">
+        <v>33</v>
+      </c>
+      <c r="G48">
+        <v>7.8</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>207</v>
+      </c>
+      <c r="B49" t="s">
+        <v>203</v>
+      </c>
+      <c r="C49">
+        <v>2017</v>
+      </c>
       <c r="D49" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" t="s">
+        <v>66</v>
+      </c>
+      <c r="G49">
+        <v>7.2</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49" t="s">
+        <v>204</v>
+      </c>
+      <c r="J49" t="s">
+        <v>205</v>
+      </c>
+      <c r="K49" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>211</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C50">
+        <v>2016</v>
+      </c>
       <c r="D50" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" t="s">
+        <v>53</v>
+      </c>
+      <c r="G50">
+        <v>7.1</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50" t="s">
+        <v>35</v>
+      </c>
+      <c r="J50" t="s">
+        <v>209</v>
+      </c>
+      <c r="K50" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>213</v>
+      </c>
+      <c r="B51" t="s">
+        <v>212</v>
+      </c>
+      <c r="C51">
+        <v>2015</v>
+      </c>
       <c r="D51" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51" t="s">
+        <v>66</v>
+      </c>
+      <c r="G51">
+        <v>6.1</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51" t="s">
+        <v>82</v>
+      </c>
+      <c r="J51" t="s">
+        <v>199</v>
+      </c>
+      <c r="K51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>218</v>
+      </c>
+      <c r="B52" t="s">
+        <v>214</v>
+      </c>
+      <c r="C52">
+        <v>2016</v>
+      </c>
       <c r="D52" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" t="s">
+        <v>33</v>
+      </c>
+      <c r="G52">
+        <v>7.5</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52" t="s">
+        <v>215</v>
+      </c>
+      <c r="J52" t="s">
+        <v>216</v>
+      </c>
+      <c r="K52" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>222</v>
+      </c>
+      <c r="B53" t="s">
+        <v>219</v>
+      </c>
+      <c r="C53">
+        <v>2011</v>
+      </c>
       <c r="D53" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>53</v>
+      </c>
+      <c r="F53" t="s">
+        <v>43</v>
+      </c>
+      <c r="G53">
+        <v>6</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53" t="s">
+        <v>220</v>
+      </c>
+      <c r="J53" t="s">
+        <v>221</v>
+      </c>
+      <c r="K53" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>228</v>
+      </c>
+      <c r="B54" t="s">
+        <v>224</v>
+      </c>
+      <c r="C54">
+        <v>2016</v>
+      </c>
       <c r="D54" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" t="s">
+        <v>119</v>
+      </c>
+      <c r="G54">
+        <v>5.7</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>225</v>
+      </c>
+      <c r="J54" t="s">
+        <v>226</v>
+      </c>
+      <c r="K54" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>230</v>
+      </c>
+      <c r="B55" t="s">
+        <v>229</v>
+      </c>
+      <c r="C55">
+        <v>2017</v>
+      </c>
       <c r="D55" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>21</v>
+      </c>
+      <c r="F55" t="s">
+        <v>53</v>
+      </c>
+      <c r="G55">
+        <v>6.1</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>234</v>
+      </c>
+      <c r="B56" t="s">
+        <v>231</v>
+      </c>
+      <c r="C56">
+        <v>2012</v>
+      </c>
       <c r="D56" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" t="s">
+        <v>53</v>
+      </c>
+      <c r="G56">
+        <v>8.1</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56" t="s">
+        <v>232</v>
+      </c>
+      <c r="J56" t="s">
+        <v>233</v>
+      </c>
+      <c r="K56" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>237</v>
+      </c>
+      <c r="B57" t="s">
+        <v>235</v>
+      </c>
+      <c r="C57">
+        <v>1995</v>
+      </c>
       <c r="D57" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>21</v>
+      </c>
+      <c r="F57" t="s">
+        <v>236</v>
+      </c>
+      <c r="G57">
+        <v>6.9</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>239</v>
+      </c>
+      <c r="B58" t="s">
+        <v>238</v>
+      </c>
+      <c r="C58">
+        <v>2007</v>
+      </c>
       <c r="D58" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>21</v>
+      </c>
+      <c r="F58" t="s">
+        <v>53</v>
+      </c>
+      <c r="G58">
+        <v>7.1</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>241</v>
+      </c>
+      <c r="B59" t="s">
+        <v>240</v>
+      </c>
+      <c r="C59">
+        <v>2015</v>
+      </c>
       <c r="D59" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>53</v>
+      </c>
+      <c r="F59" t="s">
+        <v>43</v>
+      </c>
+      <c r="G59">
+        <v>6.3</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>245</v>
+      </c>
+      <c r="B60" t="s">
+        <v>242</v>
+      </c>
+      <c r="C60">
+        <v>2015</v>
+      </c>
       <c r="D60" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" t="s">
+        <v>43</v>
+      </c>
+      <c r="G60">
+        <v>6.8</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
+        <v>220</v>
+      </c>
+      <c r="J60" t="s">
+        <v>243</v>
+      </c>
+      <c r="K60" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>250</v>
+      </c>
+      <c r="B61" t="s">
+        <v>246</v>
+      </c>
+      <c r="C61">
+        <v>2015</v>
+      </c>
       <c r="D61" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>26</v>
+      </c>
+      <c r="F61" t="s">
+        <v>66</v>
+      </c>
+      <c r="G61">
+        <v>7.6</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
+        <v>247</v>
+      </c>
+      <c r="J61" t="s">
+        <v>248</v>
+      </c>
+      <c r="K61" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>254</v>
+      </c>
+      <c r="B62" t="s">
+        <v>251</v>
+      </c>
+      <c r="C62">
+        <v>2014</v>
+      </c>
       <c r="D62" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>26</v>
+      </c>
+      <c r="F62" t="s">
+        <v>43</v>
+      </c>
+      <c r="G62">
+        <v>7.3</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62" t="s">
+        <v>165</v>
+      </c>
+      <c r="J62" t="s">
+        <v>252</v>
+      </c>
+      <c r="K62" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>256</v>
+      </c>
+      <c r="B63" t="s">
+        <v>255</v>
+      </c>
+      <c r="C63">
+        <v>2012</v>
+      </c>
       <c r="D63" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="G63">
+        <v>8.4</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>258</v>
+      </c>
+      <c r="B64" t="s">
+        <v>257</v>
+      </c>
+      <c r="C64">
+        <v>2016</v>
+      </c>
       <c r="D64" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E64" t="s">
+        <v>21</v>
+      </c>
+      <c r="F64" t="s">
+        <v>53</v>
+      </c>
+      <c r="G64">
+        <v>7.9</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64" t="s">
+        <v>233</v>
+      </c>
+      <c r="J64" t="s">
+        <v>232</v>
+      </c>
+      <c r="K64" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>261</v>
+      </c>
+      <c r="B65" t="s">
+        <v>259</v>
+      </c>
+      <c r="C65">
+        <v>2016</v>
+      </c>
       <c r="D65" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>21</v>
+      </c>
+      <c r="F65" t="s">
+        <v>53</v>
+      </c>
+      <c r="G65">
+        <v>7</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65" t="s">
+        <v>121</v>
+      </c>
+      <c r="J65" t="s">
+        <v>87</v>
+      </c>
+      <c r="K65" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>266</v>
+      </c>
+      <c r="B66" t="s">
+        <v>262</v>
+      </c>
+      <c r="C66">
+        <v>1993</v>
+      </c>
       <c r="D66" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" t="s">
+        <v>66</v>
+      </c>
+      <c r="G66">
+        <v>7.8</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66" t="s">
+        <v>263</v>
+      </c>
+      <c r="J66" t="s">
+        <v>264</v>
+      </c>
+      <c r="K66" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
         <v>32</v>
       </c>

--- a/Comedy_Database.xlsx
+++ b/Comedy_Database.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="396">
   <si>
     <t>Filename</t>
   </si>
@@ -825,6 +825,393 @@
   </si>
   <si>
     <t>tombstone_1993</t>
+  </si>
+  <si>
+    <t>The Matrix</t>
+  </si>
+  <si>
+    <t>Laurence Fishburne</t>
+  </si>
+  <si>
+    <t>Carrie-Anne Moss</t>
+  </si>
+  <si>
+    <t>the_matrix_1999</t>
+  </si>
+  <si>
+    <t>Pirates of the Caribbean: The Curse of the Black Pearl</t>
+  </si>
+  <si>
+    <t>pirates_2003</t>
+  </si>
+  <si>
+    <t>The Maze Runner</t>
+  </si>
+  <si>
+    <t>Kaya Scodelario</t>
+  </si>
+  <si>
+    <t>Will Poulter</t>
+  </si>
+  <si>
+    <t>maze_runner_2014</t>
+  </si>
+  <si>
+    <t>Terminator Genisys</t>
+  </si>
+  <si>
+    <t>Arnold Schwarzenegger</t>
+  </si>
+  <si>
+    <t>Jason Clarke</t>
+  </si>
+  <si>
+    <t>Emilia Clarke</t>
+  </si>
+  <si>
+    <t>terminator_2015</t>
+  </si>
+  <si>
+    <t>Okja</t>
+  </si>
+  <si>
+    <t>okja_2017</t>
+  </si>
+  <si>
+    <t>Allied</t>
+  </si>
+  <si>
+    <t>romance</t>
+  </si>
+  <si>
+    <t>Brad Pitt</t>
+  </si>
+  <si>
+    <t>Jared Harris</t>
+  </si>
+  <si>
+    <t>allied_2016</t>
+  </si>
+  <si>
+    <t>Resident Evil: The Final Chapter</t>
+  </si>
+  <si>
+    <t>horror</t>
+  </si>
+  <si>
+    <t>Milla Jovovich</t>
+  </si>
+  <si>
+    <t>Iain Glen</t>
+  </si>
+  <si>
+    <t>Ali Larter</t>
+  </si>
+  <si>
+    <t>resident_evil_2016</t>
+  </si>
+  <si>
+    <t>Pirates of the Caribbean: On Stranger Tides</t>
+  </si>
+  <si>
+    <t>Penélope Cruz</t>
+  </si>
+  <si>
+    <t>pirates_2011</t>
+  </si>
+  <si>
+    <t>Scott Pilgrim vs. the World</t>
+  </si>
+  <si>
+    <t>scott_2010</t>
+  </si>
+  <si>
+    <t>Jason Bourne</t>
+  </si>
+  <si>
+    <t>Matt Damon</t>
+  </si>
+  <si>
+    <t>Tommy Lee Jones</t>
+  </si>
+  <si>
+    <t>Alicia Vikander</t>
+  </si>
+  <si>
+    <t>jason_2016</t>
+  </si>
+  <si>
+    <t>Jurassic World</t>
+  </si>
+  <si>
+    <t>Bryce Dallas Howard</t>
+  </si>
+  <si>
+    <t>Ty Simpkins</t>
+  </si>
+  <si>
+    <t>jurassic_2015</t>
+  </si>
+  <si>
+    <t>Terminator 2: Judgment Day</t>
+  </si>
+  <si>
+    <t>Linda Hamilton</t>
+  </si>
+  <si>
+    <t>Edward Furlong</t>
+  </si>
+  <si>
+    <t>terminator_1991</t>
+  </si>
+  <si>
+    <t>Revolt</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>revolt_2017</t>
+  </si>
+  <si>
+    <t>Gladiator</t>
+  </si>
+  <si>
+    <t>Russell Crowe</t>
+  </si>
+  <si>
+    <t>Joaquin Phoenix</t>
+  </si>
+  <si>
+    <t>Connie Nielsen</t>
+  </si>
+  <si>
+    <t>gladiator_2000</t>
+  </si>
+  <si>
+    <t>The Legend of Tarzan</t>
+  </si>
+  <si>
+    <t>Alexander Skarsgård</t>
+  </si>
+  <si>
+    <t>Rory J. Saper</t>
+  </si>
+  <si>
+    <t>Christian Stevens</t>
+  </si>
+  <si>
+    <t>tarzan_2016</t>
+  </si>
+  <si>
+    <t>Underworld: Blood Wars</t>
+  </si>
+  <si>
+    <t>Kate Beckinsale</t>
+  </si>
+  <si>
+    <t>Tobias Menzies</t>
+  </si>
+  <si>
+    <t>underworld_2016</t>
+  </si>
+  <si>
+    <t>The Patriot</t>
+  </si>
+  <si>
+    <t>Mel Gibson</t>
+  </si>
+  <si>
+    <t>Heath Ledger</t>
+  </si>
+  <si>
+    <t>Joely Richardson</t>
+  </si>
+  <si>
+    <t>patriot_2000</t>
+  </si>
+  <si>
+    <t>Top Gun</t>
+  </si>
+  <si>
+    <t>Tim Robbins</t>
+  </si>
+  <si>
+    <t>Kelly McGillis</t>
+  </si>
+  <si>
+    <t>top_gun_1986</t>
+  </si>
+  <si>
+    <t>First Kill</t>
+  </si>
+  <si>
+    <t>Bruce Willis</t>
+  </si>
+  <si>
+    <t>Hayden Christensen</t>
+  </si>
+  <si>
+    <t>Ty Shelton</t>
+  </si>
+  <si>
+    <t>first_kill_2017</t>
+  </si>
+  <si>
+    <t>Star Wars: Episode IV - A New Hope</t>
+  </si>
+  <si>
+    <t>Mark Hamill</t>
+  </si>
+  <si>
+    <t>Carrie Fisher </t>
+  </si>
+  <si>
+    <t>starwars_1977</t>
+  </si>
+  <si>
+    <t>Spy</t>
+  </si>
+  <si>
+    <t>spy_2015</t>
+  </si>
+  <si>
+    <t>Batman Begins </t>
+  </si>
+  <si>
+    <t>batman_2005</t>
+  </si>
+  <si>
+    <t>Avengers: Age of Ultron</t>
+  </si>
+  <si>
+    <t>Mark Ruffalo</t>
+  </si>
+  <si>
+    <t>avengers_2015</t>
+  </si>
+  <si>
+    <t>Tomorrowland</t>
+  </si>
+  <si>
+    <t>George Clooney</t>
+  </si>
+  <si>
+    <t>Britt Robertson</t>
+  </si>
+  <si>
+    <t>Hugh Laurie</t>
+  </si>
+  <si>
+    <t>tomorrowland_2015</t>
+  </si>
+  <si>
+    <t>Jack Reacher</t>
+  </si>
+  <si>
+    <t>Rosamund Pike</t>
+  </si>
+  <si>
+    <t>Richard Jenkins</t>
+  </si>
+  <si>
+    <t>jack_reacher_2012</t>
+  </si>
+  <si>
+    <t>The Great Wall</t>
+  </si>
+  <si>
+    <t>Tian Jing</t>
+  </si>
+  <si>
+    <t>Willem Dafoe</t>
+  </si>
+  <si>
+    <t>trump_MAGA_2016</t>
+  </si>
+  <si>
+    <t>Star Trek</t>
+  </si>
+  <si>
+    <t>startrek_2009</t>
+  </si>
+  <si>
+    <t>Live by Night</t>
+  </si>
+  <si>
+    <t>Elle Fanning</t>
+  </si>
+  <si>
+    <t>Brendan Gleeson</t>
+  </si>
+  <si>
+    <t>live_by_night_2016</t>
+  </si>
+  <si>
+    <t>Gods of Egypt</t>
+  </si>
+  <si>
+    <t>Brenton Thwaites</t>
+  </si>
+  <si>
+    <t>Nikolaj Coster-Waldau</t>
+  </si>
+  <si>
+    <t>Gerard Butler</t>
+  </si>
+  <si>
+    <t>gods_of_egypt_2016</t>
+  </si>
+  <si>
+    <t>Twister</t>
+  </si>
+  <si>
+    <t>Helen Hunt</t>
+  </si>
+  <si>
+    <t>Bill Paxton</t>
+  </si>
+  <si>
+    <t>Cary Elwes</t>
+  </si>
+  <si>
+    <t>twister_1996</t>
+  </si>
+  <si>
+    <t>Keeping Up with the Joneses</t>
+  </si>
+  <si>
+    <t>Zach Galifianakis</t>
+  </si>
+  <si>
+    <t>Isla Fisher</t>
+  </si>
+  <si>
+    <t>keeping_up_2016</t>
+  </si>
+  <si>
+    <t>Jack Reacher: Never Go Back</t>
+  </si>
+  <si>
+    <t>Cobie Smulders</t>
+  </si>
+  <si>
+    <t>Aldis Hodge</t>
+  </si>
+  <si>
+    <t>jack_reacher_2016</t>
+  </si>
+  <si>
+    <t>the_mummy_1999</t>
+  </si>
+  <si>
+    <t>Pacific Rim</t>
+  </si>
+  <si>
+    <t>FUCKING GUNDAMS BOI ITS 1AM AND I HAVE BEEN DOING THIS FOR THE LAST 4 HOURS KILL ME NOW OH GOD IM SO TIRED OF HEARING IMAGINE DRAGONS BELIEVE</t>
+  </si>
+  <si>
+    <t>gundam_2013</t>
   </si>
 </sst>
 </file>
@@ -1180,8 +1567,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3249,173 +3636,1112 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>270</v>
+      </c>
+      <c r="B67" t="s">
+        <v>267</v>
+      </c>
+      <c r="C67">
+        <v>1999</v>
+      </c>
       <c r="D67" t="s">
         <v>32</v>
       </c>
+      <c r="E67" t="s">
+        <v>53</v>
+      </c>
+      <c r="G67">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67" t="s">
+        <v>165</v>
+      </c>
+      <c r="J67" t="s">
+        <v>268</v>
+      </c>
+      <c r="K67" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>272</v>
+      </c>
+      <c r="B68" t="s">
+        <v>271</v>
+      </c>
+      <c r="C68">
+        <v>2003</v>
+      </c>
       <c r="D68" t="s">
         <v>32</v>
       </c>
+      <c r="E68" t="s">
+        <v>21</v>
+      </c>
+      <c r="F68" t="s">
+        <v>33</v>
+      </c>
+      <c r="G68">
+        <v>8</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68" t="s">
+        <v>58</v>
+      </c>
+      <c r="J68" t="s">
+        <v>59</v>
+      </c>
+      <c r="K68" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>276</v>
+      </c>
+      <c r="B69" t="s">
+        <v>273</v>
+      </c>
+      <c r="C69">
+        <v>2014</v>
+      </c>
       <c r="D69" t="s">
         <v>32</v>
       </c>
+      <c r="E69" t="s">
+        <v>119</v>
+      </c>
+      <c r="F69" t="s">
+        <v>53</v>
+      </c>
+      <c r="G69">
+        <v>6.8</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69" t="s">
+        <v>44</v>
+      </c>
+      <c r="J69" t="s">
+        <v>274</v>
+      </c>
+      <c r="K69" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>281</v>
+      </c>
+      <c r="B70" t="s">
+        <v>277</v>
+      </c>
+      <c r="C70">
+        <v>2015</v>
+      </c>
       <c r="D70" t="s">
         <v>32</v>
       </c>
+      <c r="E70" t="s">
+        <v>21</v>
+      </c>
+      <c r="F70" t="s">
+        <v>53</v>
+      </c>
+      <c r="G70">
+        <v>6.5</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70" t="s">
+        <v>278</v>
+      </c>
+      <c r="J70" t="s">
+        <v>279</v>
+      </c>
+      <c r="K70" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>283</v>
+      </c>
+      <c r="B71" t="s">
+        <v>282</v>
+      </c>
+      <c r="C71">
+        <v>2017</v>
+      </c>
       <c r="D71" t="s">
         <v>32</v>
       </c>
+      <c r="E71" t="s">
+        <v>21</v>
+      </c>
+      <c r="F71" t="s">
+        <v>66</v>
+      </c>
+      <c r="G71">
+        <v>7.4</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>288</v>
+      </c>
+      <c r="B72" t="s">
+        <v>284</v>
+      </c>
+      <c r="C72">
+        <v>2016</v>
+      </c>
       <c r="D72" t="s">
         <v>32</v>
       </c>
+      <c r="E72" t="s">
+        <v>66</v>
+      </c>
+      <c r="F72" t="s">
+        <v>285</v>
+      </c>
+      <c r="G72">
+        <v>7.1</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72" t="s">
+        <v>286</v>
+      </c>
+      <c r="J72" t="s">
+        <v>88</v>
+      </c>
+      <c r="K72" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>294</v>
+      </c>
+      <c r="B73" t="s">
+        <v>289</v>
+      </c>
+      <c r="C73">
+        <v>2016</v>
+      </c>
       <c r="D73" t="s">
         <v>32</v>
       </c>
+      <c r="E73" t="s">
+        <v>290</v>
+      </c>
+      <c r="F73" t="s">
+        <v>53</v>
+      </c>
+      <c r="G73">
+        <v>5.6</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73" t="s">
+        <v>291</v>
+      </c>
+      <c r="J73" t="s">
+        <v>292</v>
+      </c>
+      <c r="K73" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>297</v>
+      </c>
+      <c r="B74" t="s">
+        <v>295</v>
+      </c>
+      <c r="C74">
+        <v>2011</v>
+      </c>
       <c r="D74" t="s">
         <v>32</v>
       </c>
+      <c r="E74" t="s">
+        <v>21</v>
+      </c>
+      <c r="F74" t="s">
+        <v>33</v>
+      </c>
+      <c r="G74">
+        <v>6.6</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74" t="s">
+        <v>58</v>
+      </c>
+      <c r="J74" t="s">
+        <v>296</v>
+      </c>
+      <c r="K74" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>299</v>
+      </c>
+      <c r="B75" t="s">
+        <v>298</v>
+      </c>
+      <c r="C75">
+        <v>2010</v>
+      </c>
       <c r="D75" t="s">
         <v>32</v>
       </c>
+      <c r="E75" t="s">
+        <v>20</v>
+      </c>
+      <c r="F75" t="s">
+        <v>285</v>
+      </c>
+      <c r="G75">
+        <v>7.5</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>304</v>
+      </c>
+      <c r="B76" t="s">
+        <v>300</v>
+      </c>
+      <c r="C76">
+        <v>2016</v>
+      </c>
       <c r="D76" t="s">
         <v>32</v>
       </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="G76">
+        <v>6.7</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76" t="s">
+        <v>301</v>
+      </c>
+      <c r="J76" t="s">
+        <v>302</v>
+      </c>
+      <c r="K76" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>308</v>
+      </c>
+      <c r="B77" t="s">
+        <v>305</v>
+      </c>
+      <c r="C77">
+        <v>2015</v>
+      </c>
       <c r="D77" t="s">
         <v>32</v>
       </c>
+      <c r="E77" t="s">
+        <v>21</v>
+      </c>
+      <c r="F77" t="s">
+        <v>53</v>
+      </c>
+      <c r="G77">
+        <v>7</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77" t="s">
+        <v>73</v>
+      </c>
+      <c r="J77" t="s">
+        <v>306</v>
+      </c>
+      <c r="K77" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>312</v>
+      </c>
+      <c r="B78" t="s">
+        <v>309</v>
+      </c>
+      <c r="C78">
+        <v>1991</v>
+      </c>
       <c r="D78" t="s">
         <v>32</v>
       </c>
+      <c r="E78" t="s">
+        <v>53</v>
+      </c>
+      <c r="F78" t="s">
+        <v>43</v>
+      </c>
+      <c r="G78">
+        <v>8.5</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78" t="s">
+        <v>278</v>
+      </c>
+      <c r="J78" t="s">
+        <v>310</v>
+      </c>
+      <c r="K78" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>315</v>
+      </c>
+      <c r="B79" t="s">
+        <v>313</v>
+      </c>
+      <c r="C79">
+        <v>2017</v>
+      </c>
       <c r="D79" t="s">
         <v>32</v>
       </c>
+      <c r="E79" t="s">
+        <v>53</v>
+      </c>
+      <c r="F79" t="s">
+        <v>314</v>
+      </c>
+      <c r="G79">
+        <v>5.3</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>320</v>
+      </c>
+      <c r="B80" t="s">
+        <v>316</v>
+      </c>
+      <c r="C80">
+        <v>2000</v>
+      </c>
       <c r="D80" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>21</v>
+      </c>
+      <c r="F80" t="s">
+        <v>66</v>
+      </c>
+      <c r="G80">
+        <v>8.5</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80" t="s">
+        <v>317</v>
+      </c>
+      <c r="J80" t="s">
+        <v>318</v>
+      </c>
+      <c r="K80" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>325</v>
+      </c>
+      <c r="B81" t="s">
+        <v>321</v>
+      </c>
+      <c r="C81">
+        <v>2016</v>
+      </c>
       <c r="D81" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E81" t="s">
+        <v>21</v>
+      </c>
+      <c r="F81" t="s">
+        <v>66</v>
+      </c>
+      <c r="G81">
+        <v>6.3</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81" t="s">
+        <v>322</v>
+      </c>
+      <c r="J81" t="s">
+        <v>323</v>
+      </c>
+      <c r="K81" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>329</v>
+      </c>
+      <c r="B82" t="s">
+        <v>326</v>
+      </c>
+      <c r="C82">
+        <v>2016</v>
+      </c>
       <c r="D82" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E82" t="s">
+        <v>21</v>
+      </c>
+      <c r="F82" t="s">
+        <v>33</v>
+      </c>
+      <c r="G82">
+        <v>5.8</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82" t="s">
+        <v>327</v>
+      </c>
+      <c r="J82" t="s">
+        <v>226</v>
+      </c>
+      <c r="K82" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>334</v>
+      </c>
+      <c r="B83" t="s">
+        <v>330</v>
+      </c>
+      <c r="C83">
+        <v>2000</v>
+      </c>
       <c r="D83" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E83" t="s">
+        <v>66</v>
+      </c>
+      <c r="F83" t="s">
+        <v>67</v>
+      </c>
+      <c r="G83">
+        <v>7.2</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83" t="s">
+        <v>331</v>
+      </c>
+      <c r="J83" t="s">
+        <v>332</v>
+      </c>
+      <c r="K83" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>338</v>
+      </c>
+      <c r="B84" t="s">
+        <v>335</v>
+      </c>
+      <c r="C84">
+        <v>1986</v>
+      </c>
       <c r="D84" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E84" t="s">
+        <v>66</v>
+      </c>
+      <c r="F84" t="s">
+        <v>285</v>
+      </c>
+      <c r="G84">
+        <v>6.9</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84" t="s">
+        <v>22</v>
+      </c>
+      <c r="J84" t="s">
+        <v>336</v>
+      </c>
+      <c r="K84" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>343</v>
+      </c>
+      <c r="B85" t="s">
+        <v>339</v>
+      </c>
+      <c r="C85">
+        <v>2017</v>
+      </c>
       <c r="D85" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="G85">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85" t="s">
+        <v>340</v>
+      </c>
+      <c r="J85" t="s">
+        <v>341</v>
+      </c>
+      <c r="K85" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>347</v>
+      </c>
+      <c r="B86" t="s">
+        <v>344</v>
+      </c>
+      <c r="C86">
+        <v>1977</v>
+      </c>
       <c r="D86" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E86" t="s">
+        <v>21</v>
+      </c>
+      <c r="F86" t="s">
+        <v>33</v>
+      </c>
+      <c r="G86">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86" t="s">
+        <v>345</v>
+      </c>
+      <c r="J86" t="s">
+        <v>221</v>
+      </c>
+      <c r="K86" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>349</v>
+      </c>
+      <c r="B87" t="s">
+        <v>348</v>
+      </c>
+      <c r="C87">
+        <v>2015</v>
+      </c>
       <c r="D87" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E87" t="s">
+        <v>20</v>
+      </c>
+      <c r="F87" t="s">
+        <v>26</v>
+      </c>
+      <c r="G87">
+        <v>7</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>351</v>
+      </c>
+      <c r="B88" t="s">
+        <v>350</v>
+      </c>
+      <c r="C88">
+        <v>2005</v>
+      </c>
       <c r="D88" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E88" t="s">
+        <v>21</v>
+      </c>
+      <c r="F88" t="s">
+        <v>43</v>
+      </c>
+      <c r="G88">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>354</v>
+      </c>
+      <c r="B89" t="s">
+        <v>352</v>
+      </c>
+      <c r="C89">
+        <v>2015</v>
+      </c>
       <c r="D89" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E89" t="s">
+        <v>21</v>
+      </c>
+      <c r="F89" t="s">
+        <v>53</v>
+      </c>
+      <c r="G89">
+        <v>7.4</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89" t="s">
+        <v>232</v>
+      </c>
+      <c r="J89" t="s">
+        <v>233</v>
+      </c>
+      <c r="K89" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>359</v>
+      </c>
+      <c r="B90" t="s">
+        <v>355</v>
+      </c>
+      <c r="C90">
+        <v>2015</v>
+      </c>
       <c r="D90" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E90" t="s">
+        <v>21</v>
+      </c>
+      <c r="F90" t="s">
+        <v>236</v>
+      </c>
+      <c r="G90">
+        <v>6.5</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90" t="s">
+        <v>356</v>
+      </c>
+      <c r="J90" t="s">
+        <v>357</v>
+      </c>
+      <c r="K90" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>363</v>
+      </c>
+      <c r="B91" t="s">
+        <v>360</v>
+      </c>
+      <c r="C91">
+        <v>2012</v>
+      </c>
       <c r="D91" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E91" t="s">
+        <v>26</v>
+      </c>
+      <c r="F91" t="s">
+        <v>119</v>
+      </c>
+      <c r="G91">
+        <v>7</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91" t="s">
+        <v>22</v>
+      </c>
+      <c r="J91" t="s">
+        <v>361</v>
+      </c>
+      <c r="K91" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>367</v>
+      </c>
+      <c r="B92" t="s">
+        <v>364</v>
+      </c>
+      <c r="C92">
+        <v>2016</v>
+      </c>
       <c r="D92" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E92" t="s">
+        <v>21</v>
+      </c>
+      <c r="F92" t="s">
+        <v>33</v>
+      </c>
+      <c r="G92">
+        <v>6</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92" t="s">
+        <v>301</v>
+      </c>
+      <c r="J92" t="s">
+        <v>365</v>
+      </c>
+      <c r="K92" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>369</v>
+      </c>
+      <c r="B93" t="s">
+        <v>368</v>
+      </c>
+      <c r="C93">
+        <v>2009</v>
+      </c>
       <c r="D93" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E93" t="s">
+        <v>21</v>
+      </c>
+      <c r="F93" t="s">
+        <v>53</v>
+      </c>
+      <c r="G93">
+        <v>8</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>373</v>
+      </c>
+      <c r="B94" t="s">
+        <v>370</v>
+      </c>
+      <c r="C94">
+        <v>2016</v>
+      </c>
       <c r="D94" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E94" t="s">
+        <v>26</v>
+      </c>
+      <c r="F94" t="s">
+        <v>66</v>
+      </c>
+      <c r="G94">
+        <v>6.4</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94" t="s">
+        <v>137</v>
+      </c>
+      <c r="J94" t="s">
+        <v>371</v>
+      </c>
+      <c r="K94" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>378</v>
+      </c>
+      <c r="B95" t="s">
+        <v>374</v>
+      </c>
+      <c r="C95">
+        <v>2016</v>
+      </c>
       <c r="D95" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E95" t="s">
+        <v>21</v>
+      </c>
+      <c r="F95" t="s">
+        <v>33</v>
+      </c>
+      <c r="G95">
+        <v>5.4</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95" t="s">
+        <v>375</v>
+      </c>
+      <c r="J95" t="s">
+        <v>376</v>
+      </c>
+      <c r="K95" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>383</v>
+      </c>
+      <c r="B96" t="s">
+        <v>379</v>
+      </c>
+      <c r="C96">
+        <v>1996</v>
+      </c>
       <c r="D96" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E96" t="s">
+        <v>21</v>
+      </c>
+      <c r="F96" t="s">
+        <v>66</v>
+      </c>
+      <c r="G96">
+        <v>6.3</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96" t="s">
+        <v>380</v>
+      </c>
+      <c r="J96" t="s">
+        <v>381</v>
+      </c>
+      <c r="K96" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>387</v>
+      </c>
+      <c r="B97" t="s">
+        <v>384</v>
+      </c>
+      <c r="C97">
+        <v>2016</v>
+      </c>
       <c r="D97" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E97" t="s">
+        <v>20</v>
+      </c>
+      <c r="G97">
+        <v>5.8</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97" t="s">
+        <v>385</v>
+      </c>
+      <c r="J97" t="s">
+        <v>386</v>
+      </c>
+      <c r="K97" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>391</v>
+      </c>
+      <c r="B98" t="s">
+        <v>388</v>
+      </c>
+      <c r="C98">
+        <v>2016</v>
+      </c>
       <c r="D98" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E98" t="s">
+        <v>21</v>
+      </c>
+      <c r="F98" t="s">
+        <v>26</v>
+      </c>
+      <c r="G98">
+        <v>6.1</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98" t="s">
+        <v>22</v>
+      </c>
+      <c r="J98" t="s">
+        <v>389</v>
+      </c>
+      <c r="K98" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>392</v>
+      </c>
+      <c r="B99" t="s">
+        <v>96</v>
+      </c>
+      <c r="C99">
+        <v>1999</v>
+      </c>
       <c r="D99" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E99" t="s">
+        <v>21</v>
+      </c>
+      <c r="F99" t="s">
+        <v>33</v>
+      </c>
+      <c r="G99">
+        <v>7</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>395</v>
+      </c>
+      <c r="B100" t="s">
+        <v>393</v>
+      </c>
+      <c r="C100">
+        <v>2013</v>
+      </c>
       <c r="D100" t="s">
         <v>32</v>
+      </c>
+      <c r="E100" t="s">
+        <v>21</v>
+      </c>
+      <c r="F100" t="s">
+        <v>53</v>
+      </c>
+      <c r="G100">
+        <v>7</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100" t="s">
+        <v>394</v>
       </c>
     </row>
   </sheetData>
